--- a/selenium.xlsx
+++ b/selenium.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B96 Selenium\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734BC745-6B45-4A75-A253-0357DB02FDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F98256-0C5C-48B8-B62D-AC4C50EFA5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exceptions" sheetId="1" r:id="rId1"/>
+    <sheet name="xpath" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,19 +26,170 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>NoSuchElementException</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input[1]</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input[2]</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ABD</t>
+  </si>
+  <si>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div/input[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div/input[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input[1]|/html/body/div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input[2]|/html/body/div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input|/html/body/div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input|/html/body/div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input[1]|/html/body/div[2]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input[2]|/html/body/div[2]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absolute xpath </t>
+  </si>
+  <si>
+    <t>relative xpath</t>
+  </si>
+  <si>
+    <t>//div[1]/input[1]</t>
+  </si>
+  <si>
+    <t>//input</t>
+  </si>
+  <si>
+    <t>//div[1]/input[2]</t>
+  </si>
+  <si>
+    <t>//div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>//div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>//div[1]/input</t>
+  </si>
+  <si>
+    <t>//div[2]/input</t>
+  </si>
+  <si>
+    <t>//input[1]</t>
+  </si>
+  <si>
+    <t>//input[2]</t>
+  </si>
+  <si>
+    <t>//div[1]/input[1]|//div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>//div[1]/input[2]|//div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>//div[1]/input|//div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>//div[1]/input|//div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>//div[1]/input[1]|//div[2]/input</t>
+  </si>
+  <si>
+    <t>//div[1]/input[2]|//div[2]/input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,8 +215,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -361,4 +514,199 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C78892-C740-45DA-AF3A-82A0A86B287A}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/selenium.xlsx
+++ b/selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B96 Selenium\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F98256-0C5C-48B8-B62D-AC4C50EFA5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C82DB27-1818-465B-BAFD-F5F20AC42500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exceptions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>NoSuchElementException</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>//div[1]/input[2]|//div[2]/input</t>
+  </si>
+  <si>
+    <t>ElementNotInteractableException</t>
+  </si>
+  <si>
+    <t>disabled or hidden</t>
   </si>
 </sst>
 </file>
@@ -498,17 +504,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C78892-C740-45DA-AF3A-82A0A86B287A}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/selenium.xlsx
+++ b/selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B96 Selenium\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C82DB27-1818-465B-BAFD-F5F20AC42500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4409EB-EF7B-488E-95CB-F70DB9922EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>NoSuchElementException</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>disabled or hidden</t>
+  </si>
+  <si>
+    <t>NoSuchFrameException</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,6 +529,11 @@
       </c>
       <c r="B2" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/selenium.xlsx
+++ b/selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B96 Selenium\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4409EB-EF7B-488E-95CB-F70DB9922EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0785BFF6-FA17-4166-BD26-986E9A1624B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>NoSuchElementException</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>NoSuchFrameException</t>
+  </si>
+  <si>
+    <t>NoAlertPresentException</t>
+  </si>
+  <si>
+    <t>InvalidArgumentException</t>
+  </si>
+  <si>
+    <t>WebDriverException</t>
+  </si>
+  <si>
+    <t>path is not absolute</t>
   </si>
 </sst>
 </file>
@@ -507,15 +519,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,6 +547,24 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/selenium.xlsx
+++ b/selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B96 Selenium\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0785BFF6-FA17-4166-BD26-986E9A1624B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D63962-5A8B-4A03-988D-F5036240A381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>NoSuchElementException</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>path is not absolute</t>
+  </si>
+  <si>
+    <t>NoSuchWindowException</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,6 +568,11 @@
       </c>
       <c r="B6" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/selenium.xlsx
+++ b/selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B96 Selenium\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D63962-5A8B-4A03-988D-F5036240A381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FE9E73-6E69-441B-84A1-C7132FC8EB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>NoSuchElementException</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>NoSuchWindowException</t>
+  </si>
+  <si>
+    <t>NotImplementedError</t>
+  </si>
+  <si>
+    <t>You may only deselect all options of a multi-select</t>
   </si>
 </sst>
 </file>
@@ -522,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,6 +579,14 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
